--- a/src/Data/BoardList.xlsx
+++ b/src/Data/BoardList.xlsx
@@ -1,175 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meru\Google 드라이브\파이썬\ProjectDC\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="9120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>boardName</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>fileName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+  <si>
+    <t>BoardName</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>유머게시판</t>
+  </si>
+  <si>
+    <t>Humor</t>
   </si>
   <si>
     <t>community/board/300143</t>
   </si>
   <si>
+    <t>정치유머게시판</t>
+  </si>
+  <si>
+    <t>PoliHumor</t>
+  </si>
+  <si>
     <t>community/board/300148</t>
   </si>
   <si>
+    <t>취미유머게시판</t>
+  </si>
+  <si>
+    <t>HobbyHumor</t>
+  </si>
+  <si>
+    <t>hobby/board/300143</t>
+  </si>
+  <si>
+    <t>질문게시판</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>community/board/300142</t>
+  </si>
+  <si>
+    <t>자유게시판</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>community/board/300141</t>
+  </si>
+  <si>
+    <t>토론게시판</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>community/board/300152</t>
+  </si>
+  <si>
+    <t>스포츠게시판</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>sports/board/300141</t>
+  </si>
+  <si>
+    <t>소녀전선게시판</t>
+  </si>
+  <si>
+    <t>GirlsFrontLine</t>
+  </si>
+  <si>
+    <t>family/4382/board/184404</t>
+  </si>
+  <si>
+    <t>WOW게시판</t>
+  </si>
+  <si>
     <t>WOW</t>
   </si>
   <si>
-    <t>family/4382/board/184404</t>
-  </si>
-  <si>
-    <t>질문게시판</t>
-  </si>
-  <si>
     <t>family/4454/board/100159</t>
-  </si>
-  <si>
-    <t>hobby/board/300143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취미유머게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유머게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Humor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PoliHumor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GirlsFrontLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HobbyHumor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스포츠게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sports</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sports/board/300141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>community/board/300142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WOW게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소녀전선게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정치유머게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>community/board/300141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토론게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>community/board/300152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Topic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -178,73 +141,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -532,133 +448,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/Data/BoardList.xlsx
+++ b/src/Data/BoardList.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectRURI\src\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24705"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>BoardName</t>
   </si>
@@ -86,47 +90,70 @@
     <t>Sports</t>
   </si>
   <si>
+    <t>소녀전선게시판</t>
+  </si>
+  <si>
+    <t>GirlsFrontLine</t>
+  </si>
+  <si>
+    <t>family/4382/board/184404</t>
+  </si>
+  <si>
+    <t>WOW게시판</t>
+  </si>
+  <si>
+    <t>WOW</t>
+  </si>
+  <si>
+    <t>family/4454/board/100159</t>
+  </si>
+  <si>
     <t>sports/board/300141</t>
-  </si>
-  <si>
-    <t>소녀전선게시판</t>
-  </si>
-  <si>
-    <t>GirlsFrontLine</t>
-  </si>
-  <si>
-    <t>family/4382/board/184404</t>
-  </si>
-  <si>
-    <t>WOW게시판</t>
-  </si>
-  <si>
-    <t>WOW</t>
-  </si>
-  <si>
-    <t>family/4454/board/100159</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>community/board/300579</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트코인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitCoin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,26 +168,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -448,20 +492,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -483,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -494,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -505,7 +550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -516,7 +561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -527,7 +572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -538,7 +583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -546,32 +591,45 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>